--- a/proVidioETG/testDate/GiftCertificateCodesPaypal_CC.xlsx
+++ b/proVidioETG/testDate/GiftCertificateCodesPaypal_CC.xlsx
@@ -21,36 +21,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
   <si>
     <t xml:space="preserve">codes for  paypal and cc</t>
   </si>
   <si>
-    <t xml:space="preserve">RZVKAATLQJVHGKAT </t>
-  </si>
-  <si>
-    <t xml:space="preserve">TORJFHWVGVMCOYJP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIWODSJGRYZRGLAZ </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MIHOMCVTPZLVRPZZ </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ILKPVAQFDVPZGKIW </t>
-  </si>
-  <si>
-    <t xml:space="preserve">JTLAHTQIYZLDTSMO </t>
-  </si>
-  <si>
-    <t xml:space="preserve">OMZPQTMAIVIKLPGM </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ZZFHKRAIOOOMLIWO </t>
-  </si>
-  <si>
-    <t xml:space="preserve">TMIZFVGTHOGTZAQR </t>
+    <t xml:space="preserve">DIYHRGDMRATSSLOF </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CRJLHVQYODFFQRLC </t>
+  </si>
+  <si>
+    <t xml:space="preserve">KGLTGFIRHKOOJOII </t>
+  </si>
+  <si>
+    <t xml:space="preserve">KZPTQSTZQPGKGJSJ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLFVCJCQATPKMYKY </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AKFJITGIJPMPYFHL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DSQFHZVGCPWZIGAY </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MPWHAGLOOQKOVKAH </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GYDSQRPOKLYIWKAM </t>
   </si>
   <si>
     <t xml:space="preserve">FSRWLFVKIYHJRGMI </t>
@@ -189,10 +189,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A10"/>
+  <dimension ref="A1:A25"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -238,18 +238,69 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="2" t="s">
         <v>9</v>
       </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0"/>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/proVidioETG/testDate/GiftCertificateCodesPaypal_CC.xlsx
+++ b/proVidioETG/testDate/GiftCertificateCodesPaypal_CC.xlsx
@@ -21,36 +21,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t xml:space="preserve">codes for  paypal and cc</t>
   </si>
   <si>
     <t xml:space="preserve">DIYHRGDMRATSSLOF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CRJLHVQYODFFQRLC </t>
-  </si>
-  <si>
-    <t xml:space="preserve">KGLTGFIRHKOOJOII </t>
-  </si>
-  <si>
-    <t xml:space="preserve">KZPTQSTZQPGKGJSJ </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PLFVCJCQATPKMYKY </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AKFJITGIJPMPYFHL </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DSQFHZVGCPWZIGAY </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MPWHAGLOOQKOVKAH </t>
-  </si>
-  <si>
-    <t xml:space="preserve">GYDSQRPOKLYIWKAM </t>
   </si>
   <si>
     <t xml:space="preserve">FSRWLFVKIYHJRGMI </t>
@@ -189,10 +165,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A25"/>
+  <dimension ref="A1:A13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -212,95 +188,37 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="A3" s="2"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="A4" s="2"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="A5" s="2"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="A6" s="2"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="A7" s="2"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="A8" s="2"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="A9" s="2"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="A10" s="2"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="A11" s="2"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="A12" s="2"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0"/>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0"/>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0"/>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0"/>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0"/>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0"/>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0"/>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0"/>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0"/>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0"/>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0"/>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0"/>
+      <c r="A13" s="2"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -328,52 +246,52 @@
   <sheetData>
     <row r="39" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C39" s="2" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C40" s="2" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C41" s="2" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C42" s="2" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C43" s="2" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C44" s="2" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C45" s="2" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C46" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C47" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C48" s="2" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
